--- a/Резы/Респа для ВЕ-71б на 2020 год.xlsx
+++ b/Резы/Респа для ВЕ-71б на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,24 +114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,40 +159,40 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
